--- a/DateBase/orders/Dang Nguyen_2025-5-19.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-19.xlsx
@@ -966,6 +966,9 @@
       <c r="G2" t="str">
         <v>0108810588153455546561051055551010105105551051515610102015155416320871251510</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
